--- a/TestCases/testCasesSample.xlsx
+++ b/TestCases/testCasesSample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90543058-0F56-40FF-B007-DB1E18EAB821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="8_{7EB0B763-B1EA-4B41-A9A7-9AD2DC2F21B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A603511E-050B-4740-93FA-B332C8F281B9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseTemplate" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,25 +797,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1048563" sqref="B1048563"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="90" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
@@ -893,7 +893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="81.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="81.75">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -925,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="80.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="81.75">
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
@@ -957,7 +957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="106.5">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -989,7 +989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="138" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="153">
       <c r="A7" s="16" t="s">
         <v>44</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="103.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="141">
       <c r="A8" s="8" t="s">
         <v>52</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="161" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="187.5">
       <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="92" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="93.75">
       <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="92" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="93.75">
       <c r="A11" s="8" t="s">
         <v>76</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="126.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="128.25">
       <c r="A12" s="12" t="s">
         <v>84</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="138" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="153">
       <c r="A13" s="8" t="s">
         <v>92</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1225,7 +1225,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1237,7 +1237,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="1048576" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="1048576" spans="10:10" ht="15">
       <c r="J1048576" s="2"/>
     </row>
   </sheetData>

--- a/TestCases/testCasesSample.xlsx
+++ b/TestCases/testCasesSample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="463" documentId="8_{7EB0B763-B1EA-4B41-A9A7-9AD2DC2F21B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A603511E-050B-4740-93FA-B332C8F281B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{904EB254-1DB8-4289-B55A-6CAFF7099BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
